--- a/tests/homnucleation/homnucleation.xlsx
+++ b/tests/homnucleation/homnucleation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="-19080" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="-11540" yWindow="-19080" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exact" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>temp</t>
   </si>
@@ -54,9 +54,6 @@
     <t>c1</t>
   </si>
   <si>
-    <t>c2</t>
-  </si>
-  <si>
     <t>coeff</t>
   </si>
   <si>
@@ -76,6 +73,27 @@
   </si>
   <si>
     <t>dt</t>
+  </si>
+  <si>
+    <t>+----------------+----------------+----------------+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c1_num         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c2_num         </t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>EXCEL</t>
+  </si>
+  <si>
+    <t>% diff</t>
   </si>
 </sst>
 </file>
@@ -127,7 +145,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,13 +167,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -166,6 +187,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -176,6 +198,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:F30"/>
+  <dimension ref="C6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -533,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>170000</v>
+        <v>30000000000000</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -544,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>2.2999999999999998</v>
+        <v>355000</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -552,10 +575,10 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>8.6169999999999997E-5</v>
+        <v>8.3144600000000004</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -567,7 +590,7 @@
       </c>
       <c r="E11" s="1">
         <f>E7*EXP(-E8/E9/E6)</f>
-        <v>4.350215732499523E-7</v>
+        <v>8.5937016662607408E-6</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -575,7 +598,7 @@
     </row>
     <row r="13" spans="4:6">
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -583,7 +606,7 @@
     </row>
     <row r="14" spans="4:6">
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0.03</v>
@@ -591,7 +614,7 @@
     </row>
     <row r="15" spans="4:6">
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0.5</v>
@@ -603,35 +626,41 @@
       </c>
       <c r="E16" s="1">
         <f>E14/E15^2*E11</f>
-        <v>5.2202588789994273E-8</v>
+        <v>1.0312441999512888E-6</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:8">
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20">
         <v>0</v>
       </c>
@@ -640,13 +669,17 @@
       </c>
       <c r="E20" s="1">
         <f>D20*$E$16</f>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21">
         <f>C20+$E$17</f>
         <v>1</v>
@@ -656,14 +689,21 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ref="E21:E30" si="0">D21*$E$16</f>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F21" s="2">
         <f>F20+E20*(C21-C20)*D20</f>
-        <v>5.2202588789994277E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
+        <v>1.0312441999512888E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0312440000000001E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ref="H21:H30" si="1">ABS(G21-F21)/F21*100</f>
+        <v>1.9389324923766441E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22">
         <f>C21+$E$17</f>
         <v>2</v>
@@ -673,16 +713,23 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ref="F22:F30" si="1">F21+E21*(C22-C21)*D21</f>
-        <v>1.0440517757998855E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
+        <f t="shared" ref="F22:F30" si="2">F21+E21*(C22-C21)*D21</f>
+        <v>2.0624883999025775E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.0624880000000002E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9389324923766441E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23">
-        <f t="shared" ref="C23:C30" si="2">C22+$E$17</f>
+        <f t="shared" ref="C23:C30" si="3">C22+$E$17</f>
         <v>3</v>
       </c>
       <c r="D23" s="2">
@@ -690,16 +737,23 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0937325998538663E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.0937329999999999E-2</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>1.5660776636998283E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
+        <v>1.2934089184303272E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D24" s="2">
@@ -707,16 +761,23 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1249767998051551E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.1249769999999998E-2</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>2.0881035515997711E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
+        <v>4.85323565308043E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D25" s="2">
@@ -724,16 +785,23 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1562209997564439E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5.1562209999999997E-2</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>2.6101294394997136E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
+        <v>4.7235343467248316E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D26" s="2">
@@ -741,16 +809,23 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1874651997077326E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6.1874650000000003E-2</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>3.1321553273996562E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
+        <v>3.227617866927975E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D27" s="2">
@@ -758,16 +833,23 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>7.2187093996590207E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7.2187089999999995E-2</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>3.6541812152995987E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
+        <v>5.536433163165136E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D28" s="2">
@@ -775,16 +857,23 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>8.2499535996103102E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8.2499539999999996E-2</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>4.1762071031995413E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
+        <v>4.85323565308043E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D29" s="2">
@@ -792,16 +881,23 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2811977995615996E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9.2811980000000002E-2</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>4.6982329910994838E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
+        <v>2.1596178093394825E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D30" s="2">
@@ -809,11 +905,154 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>5.2202588789994277E-6</v>
+        <v>1.0312441999512888E-4</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10312441999512889</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1031244</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>5.2202588789994264E-3</v>
+        <v>1.9389324940588092E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.0312440000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.0624880000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.0937329999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4.1249769999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5.1562209999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6.1874650000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7.2187089999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1">
+        <v>8.2499539999999996E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="F44" s="1">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9.2811980000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.1031244</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
